--- a/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
+++ b/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/CodeSystem/CSTipoIdentificadorDEIS</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/CodeSystem/CSTipoIdentificadorDEIS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Chile</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
+++ b/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/CodeSystem/CSTipoIdentificadorDEIS</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/hpd/CodeSystem/CSTipoIdentificadorDEIS</t>
   </si>
   <si>
     <t>Version</t>

--- a/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
+++ b/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
+++ b/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
+++ b/fhir/ig/hpd/CodeSystem-CSTipoIdentificadorDEIS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
